--- a/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>6.219001267957044e-06</v>
+        <v>4.883344193263196e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>8.148790678424903e-06</v>
+        <v>1.356064869469159e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.209429104090489e-05</v>
+        <v>2.041220825426216e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.739555367681483e-05</v>
+        <v>2.139982269698134e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>2.374139457024698e-05</v>
+        <v>2.226913987947161e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.970612173317339e-05</v>
+        <v>2.356433951131098e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>8.365323340752392e-05</v>
+        <v>2.145657988585563e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002288295693986781</v>
+        <v>2.366417300392316e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003690778266934914</v>
+        <v>1.759467086030893e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004037818313323284</v>
+        <v>2.226269158139334e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003237319796356034</v>
+        <v>1.739550498125343e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001669662520574157</v>
+        <v>1.56030611892776e-06</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001276889992134042</v>
+        <v>2.514673454186288e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001616451461320503</v>
+        <v>1.968435915483148e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>7.129107541917676e-05</v>
+        <v>2.013939418405287e-06</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>5.147563848698543e-05</v>
+        <v>1.748262331676657e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>2.966840490921147e-05</v>
+        <v>1.792044352409345e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.546499948199859e-05</v>
+        <v>2.306370757915793e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.185074903910746e-05</v>
+        <v>1.896074326736369e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.194112772990314e-05</v>
+        <v>2.207171830649545e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.423949862522555e-05</v>
+        <v>4.199006799922348e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.810228128158078e-05</v>
+        <v>4.704622448047274e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.74512783133088e-05</v>
+        <v>6.248828197570964e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>3.712839888218168e-05</v>
+        <v>6.845646195325694e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>5.635082089179623e-05</v>
+        <v>6.011136565593955e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001359361854482422</v>
+        <v>7.319261568612106e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000340930392331739</v>
+        <v>6.68542446591591e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003339707949533419</v>
+        <v>6.963464300118886e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001807236941904915</v>
+        <v>6.833946839088722e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>9.378856644211961e-05</v>
+        <v>6.822497510518833e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>4.67942639466592e-05</v>
+        <v>6.456322229940269e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>4.8095177173909e-05</v>
+        <v>5.98146494706633e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.361157574662269e-05</v>
+        <v>7.138701832788167e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.966337812808616e-05</v>
+        <v>6.250479975838915e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.900031803439414e-05</v>
+        <v>6.060919171309423e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.153041048909121e-05</v>
+        <v>3.947640208756427e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>4.586043449303753e-05</v>
+        <v>4.030453465157094e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>3.049940700569933e-05</v>
+        <v>3.319737382975173e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.354344958683901e-05</v>
+        <v>4.058400366383507e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.160749120093833e-05</v>
+        <v>6.1115849067631e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.046722381451769e-05</v>
+        <v>6.243784918539435e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.322126639601681e-05</v>
+        <v>5.825468425787729e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>2.35336418719311e-05</v>
+        <v>5.241503548077639e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>5.434000087441562e-05</v>
+        <v>5.51024745516919e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>6.09186134569232e-05</v>
+        <v>5.324157948129887e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>7.052203106558397e-05</v>
+        <v>3.51388144089164e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>7.286629325388906e-05</v>
+        <v>4.588925090182235e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>6.472696900142756e-05</v>
+        <v>6.788368741498822e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>5.632835586730646e-05</v>
+        <v>9.747369019234532e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>4.203958538704388e-05</v>
+        <v>1.328125084115838e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>3.810986597711534e-05</v>
+        <v>2.77608014473733e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>3.578998987236965e-05</v>
+        <v>4.664352216139626e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>3.603337555488214e-05</v>
+        <v>0.00012748432352631</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>3.490425020505246e-05</v>
+        <v>0.0002054437171703571</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>3.493553403614945e-05</v>
+        <v>0.0002243946467539655</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>4.020765300306869e-05</v>
+        <v>0.0001796690626242545</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>5.321193858984972e-05</v>
+        <v>9.253989631163685e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>8.564739075721683e-05</v>
+        <v>7.074655947902149e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001300485551288409</v>
+        <v>8.953214996239372e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000170401569282113</v>
+        <v>3.947267473852232e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002252212943293897</v>
+        <v>2.848810044255644e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000279160356822269</v>
+        <v>1.640578543891411e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003009163851564666</v>
+        <v>8.537185529862244e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003722886044703333</v>
+        <v>6.53986266978252e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004539688769915342</v>
+        <v>6.586567724925633e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0004576395791334199</v>
+        <v>7.847817142559914e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0005110258587629975</v>
+        <v>9.96815706717884e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005202299314536233</v>
+        <v>9.603029587987931e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0005154309244798108</v>
+        <v>2.041174034772822e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0005055932167405282</v>
+        <v>3.095285595378869e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0005059657164370888</v>
+        <v>7.454981114368889e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0004794423314422875</v>
+        <v>0.0001866504652676071</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0004663612139702366</v>
+        <v>0.0001825386060998915</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003807315151437253</v>
+        <v>9.861609912936531e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003517190600005503</v>
+        <v>5.109263433817105e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000294695412912612</v>
+        <v>2.544875857843523e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002274728075757259</v>
+        <v>2.611409428873936e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002069977973691531</v>
+        <v>1.821898977238172e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001773052146485886</v>
+        <v>1.605299997678132e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>0.000168472606444683</v>
+        <v>1.027352612423011e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001688826055502388</v>
+        <v>1.163230398555384e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001668943014012401</v>
+        <v>2.473607992024085e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0001614358176079211</v>
+        <v>1.639574401060517e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0001622466476590129</v>
+        <v>7.268522583066215e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001637883431824768</v>
+        <v>6.219426574266025e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0001826876869096388</v>
+        <v>5.589790876643941e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001987206373946814</v>
+        <v>7.037154759084324e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002085322310339666</v>
+        <v>1.24845168808456e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002098084601590368</v>
+        <v>2.880241525229468e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002053290207110257</v>
+        <v>3.226952769148662e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001943543388046592</v>
+        <v>3.72874843549166e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001661560881414013</v>
+        <v>3.84951512089211e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001032486181276097</v>
+        <v>3.416588936764756e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>8.676237389171886e-05</v>
+        <v>2.968370701868398e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>6.908977054729341e-05</v>
+        <v>2.211786369292508e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>5.298491138231452e-05</v>
+        <v>2.001674810480549e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.962775670199916e-05</v>
+        <v>1.879161750747332e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>4.868830240307506e-05</v>
+        <v>1.890964570579094e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>4.958647973617071e-05</v>
+        <v>1.830254700068083e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>4.712651848359483e-05</v>
+        <v>1.828909154070827e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>4.682876205829652e-05</v>
+        <v>2.097886242804004e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>4.704262577167255e-05</v>
+        <v>2.768919934116312e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>4.686331128164991e-05</v>
+        <v>4.439300542334916e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>4.609122665239536e-05</v>
+        <v>6.729515201337739e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>4.518913683019932e-05</v>
+        <v>8.802686973636572e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>4.518237199473503e-05</v>
+        <v>0.000116156267467228</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>4.049506990498602e-05</v>
+        <v>0.0001438271303671951</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>4.115475663143223e-05</v>
+        <v>0.0001549322167949578</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>4.138255093842852e-05</v>
+        <v>0.0001914655287169801</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.116106896146318e-05</v>
+        <v>0.0002330925868784609</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>3.619677537355853e-05</v>
+        <v>0.0002348401046190526</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>3.13364425986016e-05</v>
+        <v>0.0002619532646733266</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.968713271433096e-05</v>
+        <v>0.00026644525167224</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>2.892317668254057e-05</v>
+        <v>0.0002638612118504386</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>3.574071805099335e-05</v>
+        <v>0.0002586910802491836</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>6.176217210926053e-05</v>
+        <v>0.0002587884619909386</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>7.575885028652075e-05</v>
+        <v>0.0002451101388841936</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>8.03837274036196e-05</v>
+        <v>0.0002383501509637056</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>8.197706247893811e-05</v>
+        <v>0.0001942608773715158</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>8.33812053079671e-05</v>
+        <v>0.0001792982766029567</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>8.390832306062065e-05</v>
+        <v>0.0001501142963397609</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>8.078334564219145e-05</v>
+        <v>0.0001156803533072392</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>7.400007858812202e-05</v>
+        <v>0.0001051744515608034</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>4.610914155027453e-05</v>
+        <v>9.001533248500494e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>2.960033652391079e-05</v>
+        <v>8.548999007031464e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>2.655817146594316e-05</v>
+        <v>8.569633402664068e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.024892242473749e-05</v>
+        <v>8.465986456782584e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>4.218038893938927e-05</v>
+        <v>8.182330906914618e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>4.698803326922556e-05</v>
+        <v>8.219293612181237e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>7.10252577520954e-05</v>
+        <v>8.294269610831324e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>9.393001606991007e-05</v>
+        <v>9.247221955545473e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>9.747897861283678e-05</v>
+        <v>0.0001005356547936392</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>9.351610092340902e-05</v>
+        <v>0.0001054502966798294</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>8.4169151093321e-05</v>
+        <v>0.000106038099741219</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>8.334841953968163e-05</v>
+        <v>0.0001037257903683318</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>7.443885424892646e-05</v>
+        <v>9.809736070319417e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>6.31817194049427e-05</v>
+        <v>8.379697659919055e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>5.765823226937169e-05</v>
+        <v>5.198436374251633e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>5.660992132591451e-05</v>
+        <v>4.364730040832207e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>5.59150546526391e-05</v>
+        <v>3.473044449444268e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>5.526206076409338e-05</v>
+        <v>2.659187629984289e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>5.17715329231202e-05</v>
+        <v>2.488303754461622e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>5.79671495349937e-05</v>
+        <v>2.439689478596585e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.669800510061643e-05</v>
+        <v>2.483442441867376e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>7.550552589302606e-05</v>
+        <v>2.359405917079877e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>8.533176453039053e-05</v>
+        <v>2.344070691730203e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>9.868448786909159e-05</v>
+        <v>2.354603962879837e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001111684970736705</v>
+        <v>2.345519822057566e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>0.000106002257900002</v>
+        <v>2.306046207649896e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001067309348233776</v>
+        <v>2.260169872589361e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>9.566729230166333e-05</v>
+        <v>2.259066603056519e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>9.397236925390098e-05</v>
+        <v>2.024075301497701e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>8.321941463102223e-05</v>
+        <v>2.056618505396749e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>7.973919117654423e-05</v>
+        <v>2.067758374537963e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>7.769474328357581e-05</v>
+        <v>2.055637216242489e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>9.880920401821483e-05</v>
+        <v>1.806226588679067e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>8.632328451090216e-05</v>
+        <v>1.562405797485964e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>9.119292079311487e-05</v>
+        <v>1.479006422423703e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>8.262121865575784e-05</v>
+        <v>1.44060677822068e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>7.744538105824341e-05</v>
+        <v>1.779032234109972e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>7.347536040930328e-05</v>
+        <v>3.071692225315224e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>6.904535531226775e-05</v>
+        <v>3.766074199300778e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.377925897373325e-05</v>
+        <v>3.993934464351182e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>6.456847660152647e-05</v>
+        <v>4.07090446752094e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>3.312263655849975e-05</v>
+        <v>4.13924508350212e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.366928673008363e-05</v>
+        <v>4.164742017122013e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.461356828859611e-06</v>
+        <v>4.005605183081012e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.193895992998757e-05</v>
+        <v>3.667841477662894e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>7.423072704354216e-06</v>
+        <v>2.281369763881787e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>6.028212476100158e-06</v>
+        <v>1.459751677501361e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>5.14830566892113e-06</v>
+        <v>1.305345167924413e-05</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>5.305301516427058e-06</v>
+        <v>1.481820702960553e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.388339054651105e-06</v>
+        <v>2.063069248411218e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.373973806745685e-05</v>
+        <v>2.296856781256128e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.525690652060093e-05</v>
+        <v>3.467767051462124e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.329086528561149e-05</v>
+        <v>4.578618567505066e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.183101041286868e-05</v>
+        <v>4.747592880550912e-05</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.550853488156664e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.092611215281253e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.052663899533568e-05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.616576637003947e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.067036761958565e-05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.79649062590263e-05</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.74437993222319e-05</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.708566704610253e-05</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.676024650849851e-05</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.505891977778955e-05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.80305515701216e-05</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.222755863517616e-05</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.64551495397345e-05</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.116324569522026e-05</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.756601677729803e-05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.35371011076334e-05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.104886271381714e-05</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.136089923858885e-05</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.599662503948095e-05</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.518028514154204e-05</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.99838341907639e-05</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.830332469060731e-05</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.731927676809115e-05</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.743390644052259e-05</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.1429313442369e-05</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.373518772191477e-05</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.961159829219443e-05</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.71174234709052e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.520319193096805e-05</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.306868681136595e-05</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.053644848202091e-05</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.090605406353185e-05</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.584078673509303e-05</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.531552755027044e-06</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.04116544990363e-06</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.701680076747596e-06</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.544725318682027e-06</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.877637423132595e-06</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.456013579333997e-06</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.529556813018173e-06</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.516710980353286e-06</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.528287958261277e-06</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.23679768580053e-06</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.292696756849919e-06</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.597935704289142e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>4.883344193263196e-07</v>
+        <v>6.219001267957044e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356064869469159e-06</v>
+        <v>8.148790678424903e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>2.041220825426216e-06</v>
+        <v>1.209429104090489e-05</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.139982269698134e-06</v>
+        <v>1.739555367681483e-05</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>2.226913987947161e-06</v>
+        <v>2.374139457024698e-05</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.356433951131098e-06</v>
+        <v>4.970612173317339e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>2.145657988585563e-06</v>
+        <v>8.365323340752392e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.366417300392316e-06</v>
+        <v>0.0002288295693986781</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.759467086030893e-06</v>
+        <v>0.0003690778266934914</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>2.226269158139334e-06</v>
+        <v>0.0004037818313323284</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.739550498125343e-06</v>
+        <v>0.0003237319796356034</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.56030611892776e-06</v>
+        <v>0.0001669662520574157</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>2.514673454186288e-06</v>
+        <v>0.0001276889992134042</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.968435915483148e-06</v>
+        <v>0.0001616451461320503</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.013939418405287e-06</v>
+        <v>7.129107541917676e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.748262331676657e-06</v>
+        <v>5.147563848698543e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.792044352409345e-06</v>
+        <v>2.966840490921147e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.306370757915793e-06</v>
+        <v>1.546499948199859e-05</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.896074326736369e-06</v>
+        <v>1.185074903910746e-05</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207171830649545e-06</v>
+        <v>1.194112772990314e-05</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>4.199006799922348e-06</v>
+        <v>1.423949862522555e-05</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>4.704622448047274e-06</v>
+        <v>1.810228128158078e-05</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>6.248828197570964e-06</v>
+        <v>1.74512783133088e-05</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>6.845646195325694e-06</v>
+        <v>3.712839888218168e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>6.011136565593955e-06</v>
+        <v>5.635082089179623e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>7.319261568612106e-06</v>
+        <v>0.0001359361854482422</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>6.68542446591591e-06</v>
+        <v>0.000340930392331739</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>6.963464300118886e-06</v>
+        <v>0.0003339707949533419</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>6.833946839088722e-06</v>
+        <v>0.0001807236941904915</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>6.822497510518833e-06</v>
+        <v>9.378856644211961e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.456322229940269e-06</v>
+        <v>4.67942639466592e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>5.98146494706633e-06</v>
+        <v>4.8095177173909e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>7.138701832788167e-06</v>
+        <v>3.361157574662269e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>6.250479975838915e-06</v>
+        <v>2.966337812808616e-05</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>6.060919171309423e-06</v>
+        <v>1.900031803439414e-05</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>3.947640208756427e-06</v>
+        <v>2.153041048909121e-05</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>4.030453465157094e-06</v>
+        <v>4.586043449303753e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>3.319737382975173e-06</v>
+        <v>3.049940700569933e-05</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>4.058400366383507e-06</v>
+        <v>1.354344958683901e-05</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>6.1115849067631e-06</v>
+        <v>1.160749120093833e-05</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>6.243784918539435e-06</v>
+        <v>1.046722381451769e-05</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>5.825468425787729e-06</v>
+        <v>1.322126639601681e-05</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>5.241503548077639e-06</v>
+        <v>2.35336418719311e-05</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>5.51024745516919e-06</v>
+        <v>5.434000087441562e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>5.324157948129887e-06</v>
+        <v>6.09186134569232e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>3.51388144089164e-06</v>
+        <v>7.052203106558397e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>4.588925090182235e-06</v>
+        <v>7.286629325388906e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>6.788368741498822e-06</v>
+        <v>6.472696900142756e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>9.747369019234532e-06</v>
+        <v>5.632835586730646e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.328125084115838e-05</v>
+        <v>4.203958538704388e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>2.77608014473733e-05</v>
+        <v>3.810986597711534e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>4.664352216139626e-05</v>
+        <v>3.578998987236965e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00012748432352631</v>
+        <v>3.603337555488214e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0002054437171703571</v>
+        <v>3.490425020505246e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0002243946467539655</v>
+        <v>3.493553403614945e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0001796690626242545</v>
+        <v>4.020765300306869e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>9.253989631163685e-05</v>
+        <v>5.321193858984972e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>7.074655947902149e-05</v>
+        <v>8.564739075721683e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>8.953214996239372e-05</v>
+        <v>0.0001300485551288409</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>3.947267473852232e-05</v>
+        <v>0.000170401569282113</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.848810044255644e-05</v>
+        <v>0.0002252212943293897</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.640578543891411e-05</v>
+        <v>0.000279160356822269</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>8.537185529862244e-06</v>
+        <v>0.0003009163851564666</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>6.53986266978252e-06</v>
+        <v>0.0003722886044703333</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>6.586567724925633e-06</v>
+        <v>0.0004539688769915342</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>7.847817142559914e-06</v>
+        <v>0.0004576395791334199</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>9.96815706717884e-06</v>
+        <v>0.0005110258587629975</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>9.603029587987931e-06</v>
+        <v>0.0005202299314536233</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.041174034772822e-05</v>
+        <v>0.0005154309244798108</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>3.095285595378869e-05</v>
+        <v>0.0005055932167405282</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>7.454981114368889e-05</v>
+        <v>0.0005059657164370888</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001866504652676071</v>
+        <v>0.0004794423314422875</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001825386060998915</v>
+        <v>0.0004663612139702366</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>9.861609912936531e-05</v>
+        <v>0.0003807315151437253</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>5.109263433817105e-05</v>
+        <v>0.0003517190600005503</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>2.544875857843523e-05</v>
+        <v>0.000294695412912612</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>2.611409428873936e-05</v>
+        <v>0.0002274728075757259</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.821898977238172e-05</v>
+        <v>0.0002069977973691531</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.605299997678132e-05</v>
+        <v>0.0001773052146485886</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.027352612423011e-05</v>
+        <v>0.000168472606444683</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.163230398555384e-05</v>
+        <v>0.0001688826055502388</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.473607992024085e-05</v>
+        <v>0.0001668943014012401</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.639574401060517e-05</v>
+        <v>0.0001614358176079211</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>7.268522583066215e-06</v>
+        <v>0.0001622466476590129</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>6.219426574266025e-06</v>
+        <v>0.0001637883431824768</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>5.589790876643941e-06</v>
+        <v>0.0001826876869096388</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>7.037154759084324e-06</v>
+        <v>0.0001987206373946814</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>1.24845168808456e-05</v>
+        <v>0.0002085322310339666</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>2.880241525229468e-05</v>
+        <v>0.0002098084601590368</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>3.226952769148662e-05</v>
+        <v>0.0002053290207110257</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>3.72874843549166e-05</v>
+        <v>0.0001943543388046592</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>3.84951512089211e-05</v>
+        <v>0.0001661560881414013</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.416588936764756e-05</v>
+        <v>0.0001032486181276097</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>2.968370701868398e-05</v>
+        <v>8.676237389171886e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>2.211786369292508e-05</v>
+        <v>6.908977054729341e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.001674810480549e-05</v>
+        <v>5.298491138231452e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.879161750747332e-05</v>
+        <v>4.962775670199916e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.890964570579094e-05</v>
+        <v>4.868830240307506e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.830254700068083e-05</v>
+        <v>4.958647973617071e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.828909154070827e-05</v>
+        <v>4.712651848359483e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>2.097886242804004e-05</v>
+        <v>4.682876205829652e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.768919934116312e-05</v>
+        <v>4.704262577167255e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>4.439300542334916e-05</v>
+        <v>4.686331128164991e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>6.729515201337739e-05</v>
+        <v>4.609122665239536e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.802686973636572e-05</v>
+        <v>4.518913683019932e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>0.000116156267467228</v>
+        <v>4.518237199473503e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0001438271303671951</v>
+        <v>4.049506990498602e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0001549322167949578</v>
+        <v>4.115475663143223e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001914655287169801</v>
+        <v>4.138255093842852e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002330925868784609</v>
+        <v>4.116106896146318e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0002348401046190526</v>
+        <v>3.619677537355853e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0002619532646733266</v>
+        <v>3.13364425986016e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.00026644525167224</v>
+        <v>2.968713271433096e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0002638612118504386</v>
+        <v>2.892317668254057e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0002586910802491836</v>
+        <v>3.574071805099335e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0002587884619909386</v>
+        <v>6.176217210926053e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0002451101388841936</v>
+        <v>7.575885028652075e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0002383501509637056</v>
+        <v>8.03837274036196e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0001942608773715158</v>
+        <v>8.197706247893811e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0001792982766029567</v>
+        <v>8.33812053079671e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0001501142963397609</v>
+        <v>8.390832306062065e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0001156803533072392</v>
+        <v>8.078334564219145e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0001051744515608034</v>
+        <v>7.400007858812202e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>9.001533248500494e-05</v>
+        <v>4.610914155027453e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>8.548999007031464e-05</v>
+        <v>2.960033652391079e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>8.569633402664068e-05</v>
+        <v>2.655817146594316e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>8.465986456782584e-05</v>
+        <v>3.024892242473749e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>8.182330906914618e-05</v>
+        <v>4.218038893938927e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>8.219293612181237e-05</v>
+        <v>4.698803326922556e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>8.294269610831324e-05</v>
+        <v>7.10252577520954e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>9.247221955545473e-05</v>
+        <v>9.393001606991007e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0001005356547936392</v>
+        <v>9.747897861283678e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0001054502966798294</v>
+        <v>9.351610092340902e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>0.000106038099741219</v>
+        <v>8.4169151093321e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0001037257903683318</v>
+        <v>8.334841953968163e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>9.809736070319417e-05</v>
+        <v>7.443885424892646e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>8.379697659919055e-05</v>
+        <v>6.31817194049427e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>5.198436374251633e-05</v>
+        <v>5.765823226937169e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.364730040832207e-05</v>
+        <v>5.660992132591451e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>3.473044449444268e-05</v>
+        <v>5.59150546526391e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>2.659187629984289e-05</v>
+        <v>5.526206076409338e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.488303754461622e-05</v>
+        <v>5.17715329231202e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>2.439689478596585e-05</v>
+        <v>5.79671495349937e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>2.483442441867376e-05</v>
+        <v>6.669800510061643e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>2.359405917079877e-05</v>
+        <v>7.550552589302606e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>2.344070691730203e-05</v>
+        <v>8.533176453039053e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>2.354603962879837e-05</v>
+        <v>9.868448786909159e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>2.345519822057566e-05</v>
+        <v>0.0001111684970736705</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>2.306046207649896e-05</v>
+        <v>0.000106002257900002</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>2.260169872589361e-05</v>
+        <v>0.0001067309348233776</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>2.259066603056519e-05</v>
+        <v>9.566729230166333e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>2.024075301497701e-05</v>
+        <v>9.397236925390098e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>2.056618505396749e-05</v>
+        <v>8.321941463102223e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>2.067758374537963e-05</v>
+        <v>7.973919117654423e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>2.055637216242489e-05</v>
+        <v>7.769474328357581e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.806226588679067e-05</v>
+        <v>9.880920401821483e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.562405797485964e-05</v>
+        <v>8.632328451090216e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.479006422423703e-05</v>
+        <v>9.119292079311487e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.44060677822068e-05</v>
+        <v>8.262121865575784e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.779032234109972e-05</v>
+        <v>7.744538105824341e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>3.071692225315224e-05</v>
+        <v>7.347536040930328e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>3.766074199300778e-05</v>
+        <v>6.904535531226775e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>3.993934464351182e-05</v>
+        <v>6.377925897373325e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>4.07090446752094e-05</v>
+        <v>6.456847660152647e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>4.13924508350212e-05</v>
+        <v>3.312263655849975e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>4.164742017122013e-05</v>
+        <v>1.366928673008363e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>4.005605183081012e-05</v>
+        <v>8.461356828859611e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>3.667841477662894e-05</v>
+        <v>1.193895992998757e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>2.281369763881787e-05</v>
+        <v>7.423072704354216e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.459751677501361e-05</v>
+        <v>6.028212476100158e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.305345167924413e-05</v>
+        <v>5.14830566892113e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.481820702960553e-05</v>
+        <v>5.305301516427058e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>2.063069248411218e-05</v>
+        <v>7.388339054651105e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>2.296856781256128e-05</v>
+        <v>1.373973806745685e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>3.467767051462124e-05</v>
+        <v>1.525690652060093e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>4.578618567505066e-05</v>
+        <v>1.329086528561149e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>4.747592880550912e-05</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.550853488156664e-05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.092611215281253e-05</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.052663899533568e-05</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.616576637003947e-05</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.067036761958565e-05</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.79649062590263e-05</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.74437993222319e-05</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.708566704610253e-05</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.676024650849851e-05</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.505891977778955e-05</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.80305515701216e-05</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.222755863517616e-05</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.64551495397345e-05</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.116324569522026e-05</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.756601677729803e-05</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5.35371011076334e-05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.104886271381714e-05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.136089923858885e-05</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.599662503948095e-05</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.518028514154204e-05</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.99838341907639e-05</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.830332469060731e-05</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.731927676809115e-05</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.743390644052259e-05</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.1429313442369e-05</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.373518772191477e-05</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.961159829219443e-05</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.71174234709052e-05</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.520319193096805e-05</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.306868681136595e-05</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.053644848202091e-05</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.090605406353185e-05</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.584078673509303e-05</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.531552755027044e-06</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.04116544990363e-06</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.701680076747596e-06</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.544725318682027e-06</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.877637423132595e-06</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.456013579333997e-06</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.529556813018173e-06</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.516710980353286e-06</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.528287958261277e-06</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7.23679768580053e-06</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>6.292696756849919e-06</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.597935704289142e-06</v>
+        <v>1.183101041286868e-05</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>6.219001267957044e-06</v>
+        <v>764347584100.7269</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>8.148790678424903e-06</v>
+        <v>1321815037498.421</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.209429104090489e-05</v>
+        <v>1854903591950.939</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>1.739555367681483e-05</v>
+        <v>1857756800924.204</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>2.374139457024698e-05</v>
+        <v>2287858363293.519</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>4.970612173317339e-05</v>
+        <v>2184957658766.499</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>8.365323340752392e-05</v>
+        <v>2117323256999.542</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002288295693986781</v>
+        <v>2313633468638.112</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003690778266934914</v>
+        <v>1641760224002.388</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004037818313323284</v>
+        <v>2083744484324.303</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003237319796356034</v>
+        <v>2327207921326.243</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001669662520574157</v>
+        <v>1498837545050.181</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001276889992134042</v>
+        <v>2312622000810.33</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001616451461320503</v>
+        <v>1792501773950.932</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>7.129107541917676e-05</v>
+        <v>1933682711589.108</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>5.147563848698543e-05</v>
+        <v>1638773869159.266</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>2.966840490921147e-05</v>
+        <v>1696854555468.083</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.546499948199859e-05</v>
+        <v>2150079152987.615</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.185074903910746e-05</v>
+        <v>1777034925046.148</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.194112772990314e-05</v>
+        <v>2119699553370.997</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.423949862522555e-05</v>
+        <v>3816626136822.164</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.810228128158078e-05</v>
+        <v>4453551864662.329</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.74512783133088e-05</v>
+        <v>6222955674263.655</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>3.712839888218168e-05</v>
+        <v>6604032475850.268</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>5.635082089179623e-05</v>
+        <v>6230256040019.837</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001359361854482422</v>
+        <v>6862817529494.907</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000340930392331739</v>
+        <v>6716848112793.757</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003339707949533419</v>
+        <v>6655681731127.378</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001807236941904915</v>
+        <v>6539907350592.804</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>9.378856644211961e-05</v>
+        <v>6641199772755.791</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>4.67942639466592e-05</v>
+        <v>6227442907852.177</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>4.8095177173909e-05</v>
+        <v>5877689898908.375</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.361157574662269e-05</v>
+        <v>6649821627263.717</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.966337812808616e-05</v>
+        <v>5918732903685.495</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.900031803439414e-05</v>
+        <v>5664954479216.592</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.153041048909121e-05</v>
+        <v>3820331388732.629</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4.586043449303753e-05</v>
+        <v>3796460517964.157</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>3.049940700569933e-05</v>
+        <v>3586560031755.675</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.354344958683901e-05</v>
+        <v>3836810037963.849</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.160749120093833e-05</v>
+        <v>5726161030599.941</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.046722381451769e-05</v>
+        <v>5896629619464.831</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.322126639601681e-05</v>
+        <v>5419277736101.066</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>2.35336418719311e-05</v>
+        <v>4898252122796.965</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>5.434000087441562e-05</v>
+        <v>5120200039936.096</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>6.09186134569232e-05</v>
+        <v>4979010096308.344</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>7.052203106558397e-05</v>
+        <v>3258363256547.315</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>7.286629325388906e-05</v>
+        <v>4289534895517.452</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>6.472696900142756e-05</v>
+        <v>6314576037410.508</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>5.632835586730646e-05</v>
+        <v>9126519188079.377</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>4.203958538704388e-05</v>
+        <v>12413814222065.88</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>3.810986597711534e-05</v>
+        <v>25842183267387.63</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>3.578998987236965e-05</v>
+        <v>43421925750738.89</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>3.603337555488214e-05</v>
+        <v>119042681965844.6</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>3.490425020505246e-05</v>
+        <v>191664154474265</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>3.493553403614945e-05</v>
+        <v>209033740664050.7</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>4.020765300306869e-05</v>
+        <v>167460558018345.3</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>5.321193858984972e-05</v>
+        <v>86441104916973.72</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>8.564739075721683e-05</v>
+        <v>66141942519652.62</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001300485551288409</v>
+        <v>83541048480466.52</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000170401569282113</v>
+        <v>36786455053401.8</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002252212943293897</v>
+        <v>26481882746833.82</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000279160356822269</v>
+        <v>15219291505212.32</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003009163851564666</v>
+        <v>7964918996939.512</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003722886044703333</v>
+        <v>6111716405607.539</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004539688769915342</v>
+        <v>6201785723929.608</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0004576395791334199</v>
+        <v>7308205766097.734</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0005110258587629975</v>
+        <v>9510783905558.008</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005202299314536233</v>
+        <v>9190972448753.314</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0005154309244798108</v>
+        <v>18633264617112.27</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0005055932167405282</v>
+        <v>29258476656067.72</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0005059657164370888</v>
+        <v>69581154055112.81</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0004794423314422875</v>
+        <v>174153121180282.9</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0004663612139702366</v>
+        <v>170405090292196.5</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003807315151437253</v>
+        <v>91958431879242.92</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003517190600005503</v>
+        <v>47901666672582.62</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000294695412912612</v>
+        <v>23735347908629.21</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002274728075757259</v>
+        <v>24448620460797.38</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002069977973691531</v>
+        <v>17338124119936.17</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001773052146485886</v>
+        <v>14967330796012.83</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>0.000168472606444683</v>
+        <v>9561040191934.457</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001688826055502388</v>
+        <v>10837157695685.12</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001668943014012401</v>
+        <v>23029221165133.2</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0001614358176079211</v>
+        <v>15258327945963.7</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0001622466476590129</v>
+        <v>6754651657804.289</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001637883431824768</v>
+        <v>5792191999349.046</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0001826876869096388</v>
+        <v>5215758429330.195</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001987206373946814</v>
+        <v>6511350580343.689</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002085322310339666</v>
+        <v>11641136735473.18</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002098084601590368</v>
+        <v>26812722368885.41</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002053290207110257</v>
+        <v>30009431400895.48</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001943543388046592</v>
+        <v>34826919208170.94</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001661560881414013</v>
+        <v>35808743290566.09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001032486181276097</v>
+        <v>31714884049496.18</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>8.676237389171886e-05</v>
+        <v>27697026779138.03</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>6.908977054729341e-05</v>
+        <v>20598608034179.93</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>5.298491138231452e-05</v>
+        <v>18690914488743.1</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.962775670199916e-05</v>
+        <v>17558407942934.63</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>4.868830240307506e-05</v>
+        <v>17496052882648.57</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>4.958647973617071e-05</v>
+        <v>17099343388102.7</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>4.712651848359483e-05</v>
+        <v>17026577189634.86</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>4.682876205829652e-05</v>
+        <v>19548720441494.47</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>4.704262577167255e-05</v>
+        <v>25843069409429.07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>4.686331128164991e-05</v>
+        <v>41373339468373.26</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>4.609122665239536e-05</v>
+        <v>62674719342178.23</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>4.518913683019932e-05</v>
+        <v>82059839028672.55</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>4.518237199473503e-05</v>
+        <v>108143606933312.8</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>4.049506990498602e-05</v>
+        <v>134054022953319.7</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>4.115475663143223e-05</v>
+        <v>144356148045541.2</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>4.138255093842852e-05</v>
+        <v>178622632582277.2</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>4.116106896146318e-05</v>
+        <v>217222116996599.2</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>3.619677537355853e-05</v>
+        <v>218833494188535.7</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>3.13364425986016e-05</v>
+        <v>243941954721612.8</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>2.968713271433096e-05</v>
+        <v>248192690544933.2</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>2.892317668254057e-05</v>
+        <v>245848129396863.1</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>3.574071805099335e-05</v>
+        <v>241112732406224.4</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>6.176217210926053e-05</v>
+        <v>240796900253667.8</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>7.575885028652075e-05</v>
+        <v>228313065677442.8</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>8.03837274036196e-05</v>
+        <v>222088474698824.3</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>8.197706247893811e-05</v>
+        <v>180965132400017.5</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>8.33812053079671e-05</v>
+        <v>166967488730271.2</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>8.390832306062065e-05</v>
+        <v>140013375979668.5</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>8.078334564219145e-05</v>
+        <v>107763276853734.2</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>7.400007858812202e-05</v>
+        <v>97958165553562.23</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>4.610914155027453e-05</v>
+        <v>83976728573446.03</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>2.960033652391079e-05</v>
+        <v>79664325968497.14</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>2.655817146594316e-05</v>
+        <v>79913144983095.92</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>3.024892242473749e-05</v>
+        <v>79065128698848.34</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>4.218038893938927e-05</v>
+        <v>76265931485598.84</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>4.698803326922556e-05</v>
+        <v>76717594493127.09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>7.10252577520954e-05</v>
+        <v>77220384921420.67</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>9.393001606991007e-05</v>
+        <v>86177444125110.53</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>9.747897861283678e-05</v>
+        <v>93608028752364.27</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>9.351610092340902e-05</v>
+        <v>98178818331431.91</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>8.4169151093321e-05</v>
+        <v>98918222918248.14</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>8.334841953968163e-05</v>
+        <v>96551230781484.02</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>7.443885424892646e-05</v>
+        <v>91352763743186.14</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>6.31817194049427e-05</v>
+        <v>78125469861836.59</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>5.765823226937169e-05</v>
+        <v>48406172483265.22</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>5.660992132591451e-05</v>
+        <v>40546643735149.91</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>5.59150546526391e-05</v>
+        <v>32406308577306.37</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>5.526206076409338e-05</v>
+        <v>24818327925850.71</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>5.17715329231202e-05</v>
+        <v>23141280429018.34</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>5.79671495349937e-05</v>
+        <v>22608798794057.68</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.669800510061643e-05</v>
+        <v>23116209750524.15</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>7.550552589302606e-05</v>
+        <v>21986245573793.52</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>8.533176453039053e-05</v>
+        <v>21953163601156.13</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>9.868448786909159e-05</v>
+        <v>21976742567063.71</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001111684970736705</v>
+        <v>21875438881742.43</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>0.000106002257900002</v>
+        <v>21470121202804.39</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001067309348233776</v>
+        <v>20961960478177.95</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>9.566729230166333e-05</v>
+        <v>20958698787909.23</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>9.397236925390098e-05</v>
+        <v>18944955915025.48</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>8.321941463102223e-05</v>
+        <v>19144165737224.63</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>7.973919117654423e-05</v>
+        <v>19316637937469.76</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>7.769474328357581e-05</v>
+        <v>19150524839411.88</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>9.880920401821483e-05</v>
+        <v>16844161965685.79</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>8.632328451090216e-05</v>
+        <v>14651806029899.77</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>9.119292079311487e-05</v>
+        <v>13762897597250.78</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>8.262121865575784e-05</v>
+        <v>13405996316442.09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>7.744538105824341e-05</v>
+        <v>16536811240570.06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>7.347536040930328e-05</v>
+        <v>28797221112108.79</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>6.904535531226775e-05</v>
+        <v>35008858110427.52</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.377925897373325e-05</v>
+        <v>37193449865854.61</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>6.456847660152647e-05</v>
+        <v>37833505854462.65</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>3.312263655849975e-05</v>
+        <v>38503948992360.2</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.366928673008363e-05</v>
+        <v>38800160444798.55</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.461356828859611e-06</v>
+        <v>37269592693946.66</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.193895992998757e-05</v>
+        <v>34225765306517.5</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>7.423072704354216e-06</v>
+        <v>21251523976110.09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>6.028212476100158e-06</v>
+        <v>13588356308180.62</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>5.14830566892113e-06</v>
+        <v>12172442575789</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>5.305301516427058e-06</v>
+        <v>13821064081481.01</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.388339054651105e-06</v>
+        <v>19269463376949.65</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.373973806745685e-05</v>
+        <v>21343664757531.11</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.525690652060093e-05</v>
+        <v>32204304849438.89</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.329086528561149e-05</v>
+        <v>42893082715948.97</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.183101041286868e-05</v>
+        <v>44186096839112.69</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>42379631622090.83</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>38038906174569.31</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>37759417677583.38</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>33697365519367.79</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>28547357026506.36</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>26127512124870.12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25766951910276.79</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25313259856982.55</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>24986999845556.81</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>23448665130398.09</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>26180321233054.27</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>30110045928045</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>33988612648652.25</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>38276339153589.95</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>44273576730754.05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>49912306246104.38</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>47577142906015.99</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>47735150213418.4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>42871765588410.77</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>42100936088319.41</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>37318474207183.53</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>35737705124165.15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>34827026667828.14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>44205037397117.91</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>38575883009616.97</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>40639570429349.27</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>36922888704988.51</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>34602531984122.84</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>32794736906362.38</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>30738731224909.76</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>28438875958440.82</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>28855918276947.59</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>14803542043497.96</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6078403145908.46</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3760653875454.438</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5312393732311.993</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3301393504629.574</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2675227537860.691</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2267609783833.689</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2307574408063.078</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3283664728024.175</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6070997850848.405</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6732601886062.075</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5856764468917.043</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5204205614777.77</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>764347584100.7269</v>
+        <v>7.081578242054265e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1321815037498.421</v>
+        <v>8.978394835169753e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1854903591950.939</v>
+        <v>1.323284649750606e-05</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1857756800924.204</v>
+        <v>1.930663888084793e-05</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2287858363293.519</v>
+        <v>2.630767581597552e-05</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2184957658766.499</v>
+        <v>5.35704535093632e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2117323256999.542</v>
+        <v>9.029302984858364e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2313633468638.112</v>
+        <v>0.0002428135879369648</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1641760224002.388</v>
+        <v>0.0003902294480685323</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>2083744484324.303</v>
+        <v>0.0004292863304929768</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>2327207921326.243</v>
+        <v>0.0003429661706127058</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1498837545050.181</v>
+        <v>0.0001765828646237297</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2312622000810.33</v>
+        <v>0.0001362261772418376</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1792501773950.932</v>
+        <v>0.0001721542578427294</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1933682711589.108</v>
+        <v>7.694238073754533e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1638773869159.266</v>
+        <v>5.453853993584623e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1696854555468.083</v>
+        <v>3.184163327650382e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2150079152987.615</v>
+        <v>1.726357445038602e-05</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1777034925046.148</v>
+        <v>1.319770585125746e-05</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2119699553370.997</v>
+        <v>1.314805533513263e-05</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3816626136822.164</v>
+        <v>1.614845722182982e-05</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4453551864662.329</v>
+        <v>2.024640420479664e-05</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>6222955674263.655</v>
+        <v>1.949062177093175e-05</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>6604032475850.268</v>
+        <v>4.014415416225007e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>6230256040019.837</v>
+        <v>6.245265262878813e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>6862817529494.907</v>
+        <v>0.0001446133882775608</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>6716848112793.757</v>
+        <v>0.0003656184065962107</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>6655681731127.378</v>
+        <v>0.0003598420844732572</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>6539907350592.804</v>
+        <v>0.000191076870330831</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>6641199772755.791</v>
+        <v>0.00010093313013662</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>6227442907852.177</v>
+        <v>5.067412339280134e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5877689898908.375</v>
+        <v>5.14794817722169e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>6649821627263.717</v>
+        <v>3.523596786518262e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>5918732903685.495</v>
+        <v>3.271374615590696e-05</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>5664954479216.592</v>
+        <v>1.965490938141416e-05</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>3820331388732.629</v>
+        <v>2.364133724953776e-05</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3796460517964.157</v>
+        <v>5.011031106081558e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3586560031755.675</v>
+        <v>3.318281616678439e-05</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3836810037963.849</v>
+        <v>1.483221159318188e-05</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>5726161030599.941</v>
+        <v>1.323317387434852e-05</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>5896629619464.831</v>
+        <v>1.174364190608055e-05</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>5419277736101.066</v>
+        <v>1.420257685709783e-05</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>4898252122796.965</v>
+        <v>2.605584667808874e-05</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>5120200039936.096</v>
+        <v>5.873714129346858e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>4979010096308.344</v>
+        <v>6.593840227701188e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>3258363256547.315</v>
+        <v>7.658972812872738e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>4289534895517.452</v>
+        <v>7.82933813450689e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>6314576037410.508</v>
+        <v>6.892802937495622e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>9126519188079.377</v>
+        <v>6.120763260879015e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>12413814222065.88</v>
+        <v>4.596832496101733e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>25842183267387.63</v>
+        <v>4.228475396921638e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>43421925750738.89</v>
+        <v>3.93166897468592e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>119042681965844.6</v>
+        <v>3.917605424077288e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>191664154474265</v>
+        <v>3.820212664244938e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>209033740664050.7</v>
+        <v>3.800280755968382e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>167460558018345.3</v>
+        <v>4.373238553122041e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>86441104916973.72</v>
+        <v>5.80434542788159e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>66141942519652.62</v>
+        <v>9.268153083451471e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>83541048480466.52</v>
+        <v>0.0001384074203203786</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>36786455053401.8</v>
+        <v>0.0001821094056401897</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>26481882746833.82</v>
+        <v>0.0002397017428396607</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>15219291505212.32</v>
+        <v>0.000296812201991454</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>7964918996939.512</v>
+        <v>0.0003193956815803378</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>6111716405607.539</v>
+        <v>0.0003959704543462462</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>6201785723929.608</v>
+        <v>0.0004810302793512654</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>7308205766097.734</v>
+        <v>0.0004857819036448492</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>9510783905558.008</v>
+        <v>0.0005408247553131854</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>9190972448753.314</v>
+        <v>0.0005511362231926251</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>18633264617112.27</v>
+        <v>0.0005466159808827531</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>29258476656067.72</v>
+        <v>0.0005361107820373208</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>69581154055112.81</v>
+        <v>0.0005348643092757488</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>174153121180282.9</v>
+        <v>0.0005070651091800578</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>170405090292196.5</v>
+        <v>0.000494377368501083</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>91958431879242.92</v>
+        <v>0.0004038914293858643</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>47901666672582.62</v>
+        <v>0.0003734784574300631</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>23735347908629.21</v>
+        <v>0.00031315300542791</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>24448620460797.38</v>
+        <v>0.0002414103791510964</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>17338124119936.17</v>
+        <v>0.0002201381798146742</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>14967330796012.83</v>
+        <v>0.0001891651727335154</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>9561040191934.457</v>
+        <v>0.0001794959577088553</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>10837157695685.12</v>
+        <v>0.0001803624583261</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>23029221165133.2</v>
+        <v>0.0001784893373845306</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>15258327945963.7</v>
+        <v>0.0001720509775493726</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>6754651657804.289</v>
+        <v>0.0001733691549357584</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>5792191999349.046</v>
+        <v>0.0001751909610276404</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5215758429330.195</v>
+        <v>0.0001939478297078131</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>6511350580343.689</v>
+        <v>0.0002115779766554148</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>11641136735473.18</v>
+        <v>0.0002218157207792288</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>26812722368885.41</v>
+        <v>0.0002240548511319927</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>30009431400895.48</v>
+        <v>0.0002180197082947786</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>34826919208170.94</v>
+        <v>0.0002064155307760809</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>35808743290566.09</v>
+        <v>0.0001772018836280388</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>31714884049496.18</v>
+        <v>0.0001103825775951807</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>27697026779138.03</v>
+        <v>9.264214311291358e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>20598608034179.93</v>
+        <v>7.470164784970123e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>18690914488743.1</v>
+        <v>5.743935316093367e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>17558407942934.63</v>
+        <v>5.39764613045113e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>17496052882648.57</v>
+        <v>5.28590146864508e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>17099343388102.7</v>
+        <v>5.399278295325734e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>17026577189634.86</v>
+        <v>5.123412096308316e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>19548720441494.47</v>
+        <v>5.113852606603089e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>25843069409429.07</v>
+        <v>5.152127097158023e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>41373339468373.26</v>
+        <v>5.087095679079399e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>62674719342178.23</v>
+        <v>4.979153591738872e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>82059839028672.55</v>
+        <v>4.844948142363105e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>108143606933312.8</v>
+        <v>4.775375747101837e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>134054022953319.7</v>
+        <v>4.475496079378689e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>144356148045541.2</v>
+        <v>4.502534569187007e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>178622632582277.2</v>
+        <v>4.581592358322722e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>217222116996599.2</v>
+        <v>4.521400841348199e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>218833494188535.7</v>
+        <v>3.97646021940315e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>243941954721612.8</v>
+        <v>3.49007987144917e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>248192690544933.2</v>
+        <v>3.277991286440984e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>245848129396863.1</v>
+        <v>3.18130270530302e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>241112732406224.4</v>
+        <v>3.968133297248383e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>240796900253667.8</v>
+        <v>6.775052367143157e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>228313065677442.8</v>
+        <v>8.170527828079178e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>222088474698824.3</v>
+        <v>8.698651214645705e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>180965132400017.5</v>
+        <v>8.816738200940245e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>166967488730271.2</v>
+        <v>9.055119440420253e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>140013375979668.5</v>
+        <v>9.083541827996097e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>107763276853734.2</v>
+        <v>8.705963592762868e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>97958165553562.23</v>
+        <v>8.029698556801968e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>83976728573446.03</v>
+        <v>5.015878034703486e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>79664325968497.14</v>
+        <v>3.238821714106372e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>79913144983095.92</v>
+        <v>2.946080198186228e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>79065128698848.34</v>
+        <v>3.302764383060607e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>76265931485598.84</v>
+        <v>4.628618129561094e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>76717594493127.09</v>
+        <v>5.124398039212059e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>77220384921420.67</v>
+        <v>7.665792399562469e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>86177444125110.53</v>
+        <v>0.0001011641657291533</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>93608028752364.27</v>
+        <v>0.0001056618495171507</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>98178818331431.91</v>
+        <v>0.0001007384184989984</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>98918222918248.14</v>
+        <v>8.98777256818049e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>96551230781484.02</v>
+        <v>7.973986648256444e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>91352763743186.14</v>
+        <v>6.776081908006555e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>78125469861836.59</v>
+        <v>6.263334777178371e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>48406172483265.22</v>
+        <v>6.24056557173569e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>40546643735149.91</v>
+        <v>5.985099924082943e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>32406308577306.37</v>
+        <v>5.963691288984084e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>24818327925850.71</v>
+        <v>5.752978888158877e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>23141280429018.34</v>
+        <v>6.325924616664742e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>22608798794057.68</v>
+        <v>7.260473835092275e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>23116209750524.15</v>
+        <v>8.15321999471464e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>21986245573793.52</v>
+        <v>9.19286577634175e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>21953163601156.13</v>
+        <v>0.0001057788802733295</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>21976742567063.71</v>
+        <v>0.0001164237465696428</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>21875438881742.43</v>
+        <v>0.0001136620745645989</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>21470121202804.39</v>
+        <v>0.0001025969395009276</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>20961960478177.95</v>
+        <v>0.0001008658283751777</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>20958698787909.23</v>
+        <v>8.960416885460972e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>18944955915025.48</v>
+        <v>8.591742685196031e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>19144165737224.63</v>
+        <v>8.382898266347827e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>19316637937469.76</v>
+        <v>0.0001057520670452015</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>19150524839411.88</v>
+        <v>9.285955428245659e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>16844161965685.79</v>
+        <v>9.77199521546611e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>14651806029899.77</v>
+        <v>8.888488354666361e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>13762897597250.78</v>
+        <v>8.341360972796695e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>13405996316442.09</v>
+        <v>7.934478519598956e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>16536811240570.06</v>
+        <v>7.353297637257654e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>28797221112108.79</v>
+        <v>6.879126717656242e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>35008858110427.52</v>
+        <v>7.02706244402566e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>37193449865854.61</v>
+        <v>3.648729756812367e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>37833505854462.65</v>
+        <v>1.514634166517351e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>38503948992360.2</v>
+        <v>9.155129207633667e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>38800160444798.55</v>
+        <v>1.318536591923694e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>37269592693946.66</v>
+        <v>8.216090346468622e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>34225765306517.5</v>
+        <v>6.589662577365256e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>21251523976110.09</v>
+        <v>5.550223580545306e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>13588356308180.62</v>
+        <v>5.611604827036507e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>12172442575789</v>
+        <v>8.249909719434767e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>13821064081481.01</v>
+        <v>1.515511055884722e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>19269463376949.65</v>
+        <v>1.686178937389491e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>21343664757531.11</v>
+        <v>1.462730975926135e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>32204304849438.89</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>42893082715948.97</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>44186096839112.69</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>42379631622090.83</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>38038906174569.31</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>37759417677583.38</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>33697365519367.79</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>28547357026506.36</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>26127512124870.12</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>25766951910276.79</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>25313259856982.55</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>24986999845556.81</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>23448665130398.09</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>26180321233054.27</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>30110045928045</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>33988612648652.25</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>38276339153589.95</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>44273576730754.05</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>49912306246104.38</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>47577142906015.99</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>47735150213418.4</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>42871765588410.77</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>42100936088319.41</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>37318474207183.53</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>35737705124165.15</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>34827026667828.14</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>44205037397117.91</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>38575883009616.97</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>40639570429349.27</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>36922888704988.51</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>34602531984122.84</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>32794736906362.38</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>30738731224909.76</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>28438875958440.82</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>28855918276947.59</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>14803542043497.96</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6078403145908.46</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3760653875454.438</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5312393732311.993</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3301393504629.574</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2675227537860.691</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2267609783833.689</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2307574408063.078</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3283664728024.175</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6070997850848.405</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6732601886062.075</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5856764468917.043</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5204205614777.77</v>
+        <v>1.301989000307849e-05</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints10.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>7.081578242054265e-06</v>
+        <v>3.705610167623389e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>8.978394835169753e-06</v>
+        <v>5.56950887206276e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.323284649750606e-05</v>
+        <v>9.442550875335943e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.930663888084793e-05</v>
+        <v>1.594846992503219e-05</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.630767581597552e-05</v>
+        <v>2.363203910198056e-05</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>5.35704535093632e-05</v>
+        <v>4.913256427393885e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>9.029302984858364e-05</v>
+        <v>8.762113643622982e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002428135879369648</v>
+        <v>0.0002370650819319724</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003902294480685323</v>
+        <v>0.000382058288629609</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004292863304929768</v>
+        <v>0.0004260886472275496</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003429661706127058</v>
+        <v>0.0003384828854244285</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001765828646237297</v>
+        <v>0.0001748709535661792</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001362261772418376</v>
+        <v>0.000132214772129044</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001721542578427294</v>
+        <v>0.000169988303807645</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>7.694238073754533e-05</v>
+        <v>7.344107967256057e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>5.453853993584623e-05</v>
+        <v>5.211645868117953e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.184163327650382e-05</v>
+        <v>2.754518437865838e-05</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.726357445038602e-05</v>
+        <v>1.396139179556027e-05</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.319770585125746e-05</v>
+        <v>1.060179033231521e-05</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.314805533513263e-05</v>
+        <v>9.987483049287135e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.614845722182982e-05</v>
+        <v>1.372637637934923e-05</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.024640420479664e-05</v>
+        <v>1.920654335588541e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.949062177093175e-05</v>
+        <v>1.641042394484342e-05</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>4.014415416225007e-05</v>
+        <v>3.482071523254393e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>6.245265262878813e-05</v>
+        <v>5.531773098322174e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001446133882775608</v>
+        <v>0.0001432696177556022</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003656184065962107</v>
+        <v>0.0003634343592873687</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003598420844732572</v>
+        <v>0.0003552438354947877</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000191076870330831</v>
+        <v>0.0001899177717180941</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00010093313013662</v>
+        <v>9.738813863014858e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.067412339280134e-05</v>
+        <v>4.849596474843059e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.14794817722169e-05</v>
+        <v>4.898652249212182e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.523596786518262e-05</v>
+        <v>3.622537065690594e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.271374615590696e-05</v>
+        <v>2.509858961554823e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.965490938141416e-05</v>
+        <v>1.928529228438449e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.364133724953776e-05</v>
+        <v>2.28790028045032e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>5.011031106081558e-05</v>
+        <v>4.927575249137145e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.318281616678439e-05</v>
+        <v>3.261322276061684e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.483221159318188e-05</v>
+        <v>1.359843526604707e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.323317387434852e-05</v>
+        <v>1.160071773502159e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.174364190608055e-05</v>
+        <v>1.091715129256646e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.420257685709783e-05</v>
+        <v>1.298390556488649e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.605584667808874e-05</v>
+        <v>2.555935169291804e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>5.873714129346858e-05</v>
+        <v>5.790912544055998e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>6.593840227701188e-05</v>
+        <v>6.501755005935888e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>7.658972812872738e-05</v>
+        <v>7.658105689674131e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>7.82933813450689e-05</v>
+        <v>7.796178172231753e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>6.892802937495622e-05</v>
+        <v>6.799670601543081e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>6.120763260879015e-05</v>
+        <v>6.023689768104128e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>4.596832496101733e-05</v>
+        <v>4.621394041698785e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>4.228475396921638e-05</v>
+        <v>4.189301720994565e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.93166897468592e-05</v>
+        <v>3.975305716568362e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.917605424077288e-05</v>
+        <v>3.854576736400109e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.820212664244938e-05</v>
+        <v>3.663347596278503e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.800280755968382e-05</v>
+        <v>3.657420252247299e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>4.373238553122041e-05</v>
+        <v>4.309816040678765e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>5.80434542788159e-05</v>
+        <v>5.722852035063524e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>9.268153083451471e-05</v>
+        <v>9.270935840330369e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001384074203203786</v>
+        <v>0.0001391283133546587</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0001821094056401897</v>
+        <v>0.0001828637387538976</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002397017428396607</v>
+        <v>0.0002403172769182649</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000296812201991454</v>
+        <v>0.0002981841212510903</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003193956815803378</v>
+        <v>0.0003199378650599235</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003959704543462462</v>
+        <v>0.000396355305463479</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004810302793512654</v>
+        <v>0.0004835796839116296</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0004857819036448492</v>
+        <v>0.0004872864637385733</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0005408247553131854</v>
+        <v>0.0005468703660801878</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005511362231926251</v>
+        <v>0.0005525078985358834</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0005466159808827531</v>
+        <v>0.0005503517487789077</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0005361107820373208</v>
+        <v>0.0005385857348295994</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0005348643092757488</v>
+        <v>0.0005358308478696167</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0005070651091800578</v>
+        <v>0.0005121149870104965</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000494377368501083</v>
+        <v>0.0004962666915356104</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0004038914293858643</v>
+        <v>0.0004073321014103972</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003734784574300631</v>
+        <v>0.0003735996362555036</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00031315300542791</v>
+        <v>0.0003141747832033592</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002414103791510964</v>
+        <v>0.0002429055115265435</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002201381798146742</v>
+        <v>0.0002212491073607463</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001891651727335154</v>
+        <v>0.0001895906026093668</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001794959577088553</v>
+        <v>0.0001802828743508748</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001803624583261</v>
+        <v>0.0001808184652861471</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001784893373845306</v>
+        <v>0.0001790691298230444</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0001720509775493726</v>
+        <v>0.0001724316104178158</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0001733691549357584</v>
+        <v>0.0001736059490705137</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001751909610276404</v>
+        <v>0.0001753186003928954</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0001939478297078131</v>
+        <v>0.0001947099806592711</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002115779766554148</v>
+        <v>0.0002115988754437072</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002218157207792288</v>
+        <v>0.0002216924983366386</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002240548511319927</v>
+        <v>0.0002241433627530237</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002180197082947786</v>
+        <v>0.0002187036859436883</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002064155307760809</v>
+        <v>0.0002062739878411892</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001772018836280388</v>
+        <v>0.0001781203636537077</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001103825775951807</v>
+        <v>0.0001110815155060788</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>9.264214311291358e-05</v>
+        <v>9.361543405350018e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>7.470164784970123e-05</v>
+        <v>7.508927108825498e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>5.743935316093367e-05</v>
+        <v>5.776980964448067e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>5.39764613045113e-05</v>
+        <v>5.406000216705943e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>5.28590146864508e-05</v>
+        <v>5.287678023974065e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>5.399278295325734e-05</v>
+        <v>5.367853059662147e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>5.123412096308316e-05</v>
+        <v>5.089174212023643e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>5.113852606603089e-05</v>
+        <v>5.11754732365922e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5.152127097158023e-05</v>
+        <v>5.114867696310682e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.087095679079399e-05</v>
+        <v>5.094088474739581e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>4.979153591738872e-05</v>
+        <v>5.024878898376224e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>4.844948142363105e-05</v>
+        <v>4.823291113621168e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>4.775375747101837e-05</v>
+        <v>4.766833708514093e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>4.475496079378689e-05</v>
+        <v>4.452115230479528e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>4.502534569187007e-05</v>
+        <v>4.463375682401582e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>4.581592358322722e-05</v>
+        <v>4.575655810985692e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>4.521400841348199e-05</v>
+        <v>4.454532273329883e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>3.97646021940315e-05</v>
+        <v>3.941568207874401e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>3.49007987144917e-05</v>
+        <v>3.50518857171457e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>3.277991286440984e-05</v>
+        <v>3.278172660298544e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>3.18130270530302e-05</v>
+        <v>3.224059684187839e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>3.968133297248383e-05</v>
+        <v>3.953684786551759e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>6.775052367143157e-05</v>
+        <v>6.744082789246718e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>8.170527828079178e-05</v>
+        <v>8.177705235157509e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>8.698651214645705e-05</v>
+        <v>8.675168185991176e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>8.816738200940245e-05</v>
+        <v>8.805245144800381e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>9.055119440420253e-05</v>
+        <v>9.047124705844116e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>9.083541827996097e-05</v>
+        <v>9.117496404747017e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>8.705963592762868e-05</v>
+        <v>8.7544850924454e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>8.029698556801968e-05</v>
+        <v>8.082065716804305e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>5.015878034703486e-05</v>
+        <v>5.02540975366322e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>3.238821714106372e-05</v>
+        <v>3.266080300672373e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.946080198186228e-05</v>
+        <v>2.947584293280919e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>3.302764383060607e-05</v>
+        <v>3.329794812000822e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>4.628618129561094e-05</v>
+        <v>4.629620745425606e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.124398039212059e-05</v>
+        <v>5.11326034715647e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>7.665792399562469e-05</v>
+        <v>7.627758073267998e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0001011641657291533</v>
+        <v>0.0001028285967635262</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0001056618495171507</v>
+        <v>0.0001058178093321216</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0001007384184989984</v>
+        <v>0.0001008602889791332</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>8.98777256818049e-05</v>
+        <v>8.97712370526068e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>7.973986648256444e-05</v>
+        <v>7.941912329368679e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>6.776081908006555e-05</v>
+        <v>6.874443697034254e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>6.263334777178371e-05</v>
+        <v>6.210511722919177e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>6.24056557173569e-05</v>
+        <v>6.117555056647323e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>5.985099924082943e-05</v>
+        <v>5.502624602898471e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>5.963691288984084e-05</v>
+        <v>5.925110075204349e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5.752978888158877e-05</v>
+        <v>5.770944728253019e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>6.325924616664742e-05</v>
+        <v>6.098608708135834e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>7.260473835092275e-05</v>
+        <v>7.18944197201596e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>8.15321999471464e-05</v>
+        <v>8.115901937545743e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>9.19286577634175e-05</v>
+        <v>9.153328758538e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001057788802733295</v>
+        <v>0.0001055442849945414</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001164237465696428</v>
+        <v>0.0001166215917799611</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001136620745645989</v>
+        <v>0.000113354109031997</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001025969395009276</v>
+        <v>0.0001029220166011562</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001008658283751777</v>
+        <v>0.0001012883058874513</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>8.960416885460972e-05</v>
+        <v>9.022486304516846e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>8.591742685196031e-05</v>
+        <v>8.614224921604167e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>8.382898266347827e-05</v>
+        <v>8.416246901088263e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001057520670452015</v>
+        <v>0.0001063283294385528</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>9.285955428245659e-05</v>
+        <v>9.307561365502042e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>9.77199521546611e-05</v>
+        <v>9.823998112832822e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>8.888488354666361e-05</v>
+        <v>8.925327046069184e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>8.341360972796695e-05</v>
+        <v>8.377930623533033e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>7.934478519598956e-05</v>
+        <v>7.940404176965574e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>7.353297637257654e-05</v>
+        <v>7.405037821288546e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>6.879126717656242e-05</v>
+        <v>6.910129679291951e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>7.02706244402566e-05</v>
+        <v>7.071288276381147e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>3.648729756812367e-05</v>
+        <v>3.669581892107333e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.514634166517351e-05</v>
+        <v>1.559643663230877e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>9.155129207633667e-06</v>
+        <v>9.353175493060095e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.318536591923694e-05</v>
+        <v>1.341122497280673e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8.216090346468622e-06</v>
+        <v>8.479625734310608e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.589662577365256e-06</v>
+        <v>6.84469469530521e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.550223580545306e-06</v>
+        <v>5.745962772216864e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.611604827036507e-06</v>
+        <v>5.136262149561338e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>8.249909719434767e-06</v>
+        <v>8.314012745300241e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.515511055884722e-05</v>
+        <v>1.505481693151357e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.686178937389491e-05</v>
+        <v>1.702885595726462e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.462730975926135e-05</v>
+        <v>1.48711161298494e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.301989000307849e-05</v>
+        <v>1.328457301440654e-05</v>
       </c>
     </row>
   </sheetData>
